--- a/data/word_list_6.xlsx
+++ b/data/word_list_6.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,52 +365,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>select</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aoa_german_comb</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>word_freq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_b_m</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_german_s_m</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_l_m</t>
+          <t>aoa_mor</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aoa_german_comb</t>
+          <t>clt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>clt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>english</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_mor</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>aoa_rating_english</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>select</t>
         </is>
       </c>
     </row>
@@ -423,10 +403,7 @@
       <c r="C2">
         <v>7.07</v>
       </c>
-      <c r="F2">
-        <v>7.07</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>claim</t>
         </is>
@@ -441,10 +418,7 @@
       <c r="C3">
         <v>7.07</v>
       </c>
-      <c r="F3">
-        <v>7.07</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>request</t>
         </is>
@@ -459,10 +433,7 @@
       <c r="C4">
         <v>7.07</v>
       </c>
-      <c r="F4">
-        <v>7.07</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>succession</t>
         </is>
@@ -477,10 +448,7 @@
       <c r="C5">
         <v>7.07</v>
       </c>
-      <c r="F5">
-        <v>7.07</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>skittle</t>
         </is>
@@ -495,10 +463,7 @@
       <c r="C6">
         <v>7.07</v>
       </c>
-      <c r="F6">
-        <v>7.07</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>disheartened</t>
         </is>
@@ -513,10 +478,7 @@
       <c r="C7">
         <v>7.07</v>
       </c>
-      <c r="F7">
-        <v>7.07</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>syllable</t>
         </is>
@@ -531,10 +493,7 @@
       <c r="C8">
         <v>7.07</v>
       </c>
-      <c r="F8">
-        <v>7.07</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>put on weight</t>
         </is>
@@ -549,10 +508,7 @@
       <c r="C9">
         <v>7.08</v>
       </c>
-      <c r="F9">
-        <v>7.08</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -567,10 +523,7 @@
       <c r="C10">
         <v>7.08</v>
       </c>
-      <c r="F10">
-        <v>7.08</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>ambience</t>
         </is>
@@ -585,10 +538,7 @@
       <c r="C11">
         <v>7.09</v>
       </c>
-      <c r="F11">
-        <v>7.09</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>boxing match</t>
         </is>
@@ -603,10 +553,7 @@
       <c r="C12">
         <v>7.1</v>
       </c>
-      <c r="F12">
-        <v>7.1</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>ward off</t>
         </is>
@@ -621,10 +568,7 @@
       <c r="C13">
         <v>7.1</v>
       </c>
-      <c r="F13">
-        <v>7.1</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>fitting</t>
         </is>
@@ -639,10 +583,7 @@
       <c r="C14">
         <v>7.1</v>
       </c>
-      <c r="F14">
-        <v>7.1</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>hope</t>
         </is>
@@ -657,10 +598,7 @@
       <c r="C15">
         <v>7.1</v>
       </c>
-      <c r="F15">
-        <v>7.1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>steering</t>
         </is>
@@ -675,10 +613,7 @@
       <c r="C16">
         <v>7.1</v>
       </c>
-      <c r="F16">
-        <v>7.1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>mild</t>
         </is>
@@ -693,10 +628,7 @@
       <c r="C17">
         <v>7.1</v>
       </c>
-      <c r="F17">
-        <v>7.1</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>member</t>
         </is>
@@ -711,10 +643,7 @@
       <c r="C18">
         <v>7.1</v>
       </c>
-      <c r="F18">
-        <v>7.1</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>blow up</t>
         </is>
@@ -729,10 +658,7 @@
       <c r="C19">
         <v>7.11</v>
       </c>
-      <c r="F19">
-        <v>7.11</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>abseil</t>
         </is>
@@ -747,10 +673,7 @@
       <c r="C20">
         <v>7.11</v>
       </c>
-      <c r="F20">
-        <v>7.11</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>offer</t>
         </is>
@@ -765,10 +688,7 @@
       <c r="C21">
         <v>7.11</v>
       </c>
-      <c r="F21">
-        <v>7.11</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>fair</t>
         </is>
@@ -783,10 +703,7 @@
       <c r="C22">
         <v>7.11</v>
       </c>
-      <c r="F22">
-        <v>7.11</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>researcher</t>
         </is>
@@ -798,19 +715,13 @@
           <t>grapefruit</t>
         </is>
       </c>
-      <c r="B23">
-        <v>0.27</v>
-      </c>
       <c r="C23">
         <v>7.11</v>
       </c>
       <c r="D23">
-        <v>5.2</v>
-      </c>
-      <c r="F23">
-        <v>7.11</v>
-      </c>
-      <c r="H23" t="inlineStr">
+        <v>0.27</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>grapefruit</t>
         </is>
@@ -825,10 +736,7 @@
       <c r="C24">
         <v>7.11</v>
       </c>
-      <c r="F24">
-        <v>7.11</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>crank</t>
         </is>
@@ -843,10 +751,7 @@
       <c r="C25">
         <v>7.12</v>
       </c>
-      <c r="F25">
-        <v>7.12</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sewage</t>
         </is>
@@ -861,10 +766,7 @@
       <c r="C26">
         <v>7.13</v>
       </c>
-      <c r="F26">
-        <v>7.13</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>heartless</t>
         </is>
@@ -879,10 +781,7 @@
       <c r="C27">
         <v>7.13</v>
       </c>
-      <c r="F27">
-        <v>7.13</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>carp</t>
         </is>
@@ -897,10 +796,7 @@
       <c r="C28">
         <v>7.13</v>
       </c>
-      <c r="F28">
-        <v>7.13</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>chanterelle</t>
         </is>
@@ -915,10 +811,7 @@
       <c r="C29">
         <v>7.14</v>
       </c>
-      <c r="F29">
-        <v>7.14</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>flower bud</t>
         </is>
@@ -933,10 +826,7 @@
       <c r="C30">
         <v>7.15</v>
       </c>
-      <c r="F30">
-        <v>7.15</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>at most</t>
         </is>
@@ -951,10 +841,7 @@
       <c r="C31">
         <v>7.15</v>
       </c>
-      <c r="F31">
-        <v>7.15</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>jet</t>
         </is>
@@ -969,10 +856,7 @@
       <c r="C32">
         <v>7.15</v>
       </c>
-      <c r="F32">
-        <v>7.15</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>clockwork</t>
         </is>
@@ -987,10 +871,7 @@
       <c r="C33">
         <v>7.16</v>
       </c>
-      <c r="F33">
-        <v>7.16</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>humour</t>
         </is>
@@ -1005,10 +886,7 @@
       <c r="C34">
         <v>7.16</v>
       </c>
-      <c r="F34">
-        <v>7.16</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>shimmer</t>
         </is>
@@ -1023,10 +901,7 @@
       <c r="C35">
         <v>7.16</v>
       </c>
-      <c r="F35">
-        <v>7.16</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>centre</t>
         </is>
@@ -1041,10 +916,7 @@
       <c r="C36">
         <v>7.17</v>
       </c>
-      <c r="F36">
-        <v>7.17</v>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
@@ -1059,10 +931,7 @@
       <c r="C37">
         <v>7.17</v>
       </c>
-      <c r="F37">
-        <v>7.17</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>growth</t>
         </is>
@@ -1077,10 +946,7 @@
       <c r="C38">
         <v>7.18</v>
       </c>
-      <c r="F38">
-        <v>7.18</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>coincidence</t>
         </is>
@@ -1095,10 +961,7 @@
       <c r="C39">
         <v>7.19</v>
       </c>
-      <c r="F39">
-        <v>7.19</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>choir</t>
         </is>
@@ -1113,10 +976,7 @@
       <c r="C40">
         <v>7.19</v>
       </c>
-      <c r="F40">
-        <v>7.19</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>opponent</t>
         </is>
@@ -1131,10 +991,7 @@
       <c r="C41">
         <v>7.19</v>
       </c>
-      <c r="F41">
-        <v>7.19</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
@@ -1149,10 +1006,7 @@
       <c r="C42">
         <v>7.2</v>
       </c>
-      <c r="F42">
-        <v>7.2</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>dessert</t>
         </is>
@@ -1167,10 +1021,7 @@
       <c r="C43">
         <v>7.2</v>
       </c>
-      <c r="F43">
-        <v>7.2</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>perfume</t>
         </is>
@@ -1185,10 +1036,7 @@
       <c r="C44">
         <v>7.2</v>
       </c>
-      <c r="F44">
-        <v>7.2</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>area of responsibility</t>
         </is>
@@ -1203,10 +1051,7 @@
       <c r="C45">
         <v>7.2</v>
       </c>
-      <c r="F45">
-        <v>7.2</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>tell off</t>
         </is>
@@ -1221,10 +1066,7 @@
       <c r="C46">
         <v>7.2</v>
       </c>
-      <c r="F46">
-        <v>7.2</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>universe</t>
         </is>
@@ -1239,10 +1081,7 @@
       <c r="C47">
         <v>7.2</v>
       </c>
-      <c r="F47">
-        <v>7.2</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>vampire</t>
         </is>
@@ -1257,10 +1096,7 @@
       <c r="C48">
         <v>7.21</v>
       </c>
-      <c r="F48">
-        <v>7.21</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>descent</t>
         </is>
@@ -1275,10 +1111,7 @@
       <c r="C49">
         <v>7.21</v>
       </c>
-      <c r="F49">
-        <v>7.21</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>cultivate</t>
         </is>
@@ -1293,10 +1126,7 @@
       <c r="C50">
         <v>7.21</v>
       </c>
-      <c r="F50">
-        <v>7.21</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>contemplate</t>
         </is>
@@ -1311,10 +1141,7 @@
       <c r="C51">
         <v>7.21</v>
       </c>
-      <c r="F51">
-        <v>7.21</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>unique</t>
         </is>
@@ -1329,10 +1156,7 @@
       <c r="C52">
         <v>7.21</v>
       </c>
-      <c r="F52">
-        <v>7.21</v>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>receive</t>
         </is>
@@ -1347,10 +1171,7 @@
       <c r="C53">
         <v>7.21</v>
       </c>
-      <c r="F53">
-        <v>7.21</v>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>investigate</t>
         </is>
@@ -1365,10 +1186,7 @@
       <c r="C54">
         <v>7.21</v>
       </c>
-      <c r="F54">
-        <v>7.21</v>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>fit</t>
         </is>
@@ -1383,10 +1201,7 @@
       <c r="C55">
         <v>7.21</v>
       </c>
-      <c r="F55">
-        <v>7.21</v>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>grotto</t>
         </is>
@@ -1401,10 +1216,7 @@
       <c r="C56">
         <v>7.21</v>
       </c>
-      <c r="F56">
-        <v>7.21</v>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>achieve</t>
         </is>
@@ -1419,10 +1231,7 @@
       <c r="C57">
         <v>7.21</v>
       </c>
-      <c r="F57">
-        <v>7.21</v>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>shrill</t>
         </is>
@@ -1437,10 +1246,7 @@
       <c r="C58">
         <v>7.21</v>
       </c>
-      <c r="F58">
-        <v>7.21</v>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>suspicion</t>
         </is>
@@ -1455,10 +1261,7 @@
       <c r="C59">
         <v>7.21</v>
       </c>
-      <c r="F59">
-        <v>7.21</v>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>allow</t>
         </is>
@@ -1473,10 +1276,7 @@
       <c r="C60">
         <v>7.22</v>
       </c>
-      <c r="F60">
-        <v>7.22</v>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>screen</t>
         </is>
@@ -1491,10 +1291,7 @@
       <c r="C61">
         <v>7.22</v>
       </c>
-      <c r="F61">
-        <v>7.22</v>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>surround</t>
         </is>
@@ -1509,10 +1306,7 @@
       <c r="C62">
         <v>7.22</v>
       </c>
-      <c r="F62">
-        <v>7.22</v>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>give way</t>
         </is>
@@ -1527,10 +1321,7 @@
       <c r="C63">
         <v>7.22</v>
       </c>
-      <c r="F63">
-        <v>7.22</v>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>worthless</t>
         </is>
@@ -1545,10 +1336,7 @@
       <c r="C64">
         <v>7.23</v>
       </c>
-      <c r="F64">
-        <v>7.23</v>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>hallway</t>
         </is>
@@ -1560,25 +1348,22 @@
           <t>harken</t>
         </is>
       </c>
-      <c r="E65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="C65">
         <v>7.24</v>
       </c>
-      <c r="F65">
-        <v>7.24</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
           <t>rake</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>x</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1376,7 @@
       <c r="C66">
         <v>7.24</v>
       </c>
-      <c r="F66">
-        <v>7.24</v>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>canvas</t>
         </is>
@@ -1609,10 +1391,7 @@
       <c r="C67">
         <v>7.24</v>
       </c>
-      <c r="F67">
-        <v>7.24</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>veil</t>
         </is>
@@ -1624,19 +1403,13 @@
           <t>spargel</t>
         </is>
       </c>
-      <c r="B68">
-        <v>2.66</v>
-      </c>
       <c r="C68">
         <v>7.24</v>
       </c>
       <c r="D68">
-        <v>3.6</v>
-      </c>
-      <c r="F68">
-        <v>7.24</v>
-      </c>
-      <c r="H68" t="inlineStr">
+        <v>2.66</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>asparagus</t>
         </is>
@@ -1651,10 +1424,7 @@
       <c r="C69">
         <v>7.25</v>
       </c>
-      <c r="F69">
-        <v>7.25</v>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>complicated</t>
         </is>
@@ -1669,10 +1439,7 @@
       <c r="C70">
         <v>7.25</v>
       </c>
-      <c r="F70">
-        <v>7.25</v>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>lousy</t>
         </is>
@@ -1687,10 +1454,7 @@
       <c r="C71">
         <v>7.25</v>
       </c>
-      <c r="F71">
-        <v>7.25</v>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>pendulum</t>
         </is>
@@ -1705,10 +1469,7 @@
       <c r="C72">
         <v>7.25</v>
       </c>
-      <c r="F72">
-        <v>7.25</v>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>part</t>
         </is>
@@ -1723,10 +1484,7 @@
       <c r="C73">
         <v>7.25</v>
       </c>
-      <c r="F73">
-        <v>7.25</v>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>mislay</t>
         </is>
@@ -1741,10 +1499,7 @@
       <c r="C74">
         <v>7.26</v>
       </c>
-      <c r="F74">
-        <v>7.26</v>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>concrete block</t>
         </is>
@@ -1759,10 +1514,7 @@
       <c r="C75">
         <v>7.26</v>
       </c>
-      <c r="F75">
-        <v>7.26</v>
-      </c>
-      <c r="H75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>homeland</t>
         </is>
@@ -1777,10 +1529,7 @@
       <c r="C76">
         <v>7.26</v>
       </c>
-      <c r="F76">
-        <v>7.26</v>
-      </c>
-      <c r="H76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>poster</t>
         </is>
@@ -1795,10 +1544,7 @@
       <c r="C77">
         <v>7.26</v>
       </c>
-      <c r="F77">
-        <v>7.26</v>
-      </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>guess</t>
         </is>
@@ -1813,10 +1559,7 @@
       <c r="C78">
         <v>7.26</v>
       </c>
-      <c r="F78">
-        <v>7.26</v>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>get engaged</t>
         </is>
@@ -1831,10 +1574,7 @@
       <c r="C79">
         <v>7.27</v>
       </c>
-      <c r="F79">
-        <v>7.27</v>
-      </c>
-      <c r="H79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>amount to</t>
         </is>
@@ -1849,10 +1589,7 @@
       <c r="C80">
         <v>7.27</v>
       </c>
-      <c r="F80">
-        <v>7.27</v>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>globe</t>
         </is>
@@ -1867,10 +1604,7 @@
       <c r="C81">
         <v>7.28</v>
       </c>
-      <c r="F81">
-        <v>7.28</v>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>daily routine</t>
         </is>
@@ -1885,10 +1619,7 @@
       <c r="C82">
         <v>7.28</v>
       </c>
-      <c r="F82">
-        <v>7.28</v>
-      </c>
-      <c r="H82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>cultivation</t>
         </is>
@@ -1903,10 +1634,7 @@
       <c r="C83">
         <v>7.28</v>
       </c>
-      <c r="F83">
-        <v>7.28</v>
-      </c>
-      <c r="H83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>occupy</t>
         </is>
@@ -1921,10 +1649,7 @@
       <c r="C84">
         <v>7.28</v>
       </c>
-      <c r="F84">
-        <v>7.28</v>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>gift</t>
         </is>
@@ -1939,10 +1664,7 @@
       <c r="C85">
         <v>7.28</v>
       </c>
-      <c r="F85">
-        <v>7.28</v>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>soul</t>
         </is>
@@ -1957,10 +1679,7 @@
       <c r="C86">
         <v>7.28</v>
       </c>
-      <c r="F86">
-        <v>7.28</v>
-      </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>agitation</t>
         </is>
@@ -1975,10 +1694,7 @@
       <c r="C87">
         <v>7.29</v>
       </c>
-      <c r="F87">
-        <v>7.29</v>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>meeting</t>
         </is>
@@ -1993,10 +1709,7 @@
       <c r="C88">
         <v>7.29</v>
       </c>
-      <c r="F88">
-        <v>7.29</v>
-      </c>
-      <c r="H88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>seriously</t>
         </is>
@@ -2011,10 +1724,7 @@
       <c r="C89">
         <v>7.29</v>
       </c>
-      <c r="F89">
-        <v>7.29</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>cameraman</t>
         </is>
@@ -2029,10 +1739,7 @@
       <c r="C90">
         <v>7.29</v>
       </c>
-      <c r="F90">
-        <v>7.29</v>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>president</t>
         </is>
@@ -2047,10 +1754,7 @@
       <c r="C91">
         <v>7.29</v>
       </c>
-      <c r="F91">
-        <v>7.29</v>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>religion</t>
         </is>
@@ -2065,10 +1769,7 @@
       <c r="C92">
         <v>7.29</v>
       </c>
-      <c r="F92">
-        <v>7.29</v>
-      </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>refuse</t>
         </is>
@@ -2083,10 +1784,7 @@
       <c r="C93">
         <v>7.29</v>
       </c>
-      <c r="F93">
-        <v>7.29</v>
-      </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>purpose</t>
         </is>
@@ -2101,10 +1799,7 @@
       <c r="C94">
         <v>7.3</v>
       </c>
-      <c r="F94">
-        <v>7.3</v>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>shun</t>
         </is>
@@ -2119,10 +1814,7 @@
       <c r="C95">
         <v>7.3</v>
       </c>
-      <c r="F95">
-        <v>7.3</v>
-      </c>
-      <c r="H95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>east</t>
         </is>
@@ -2137,10 +1829,7 @@
       <c r="C96">
         <v>7.3</v>
       </c>
-      <c r="F96">
-        <v>7.3</v>
-      </c>
-      <c r="H96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>future</t>
         </is>
@@ -2155,10 +1844,7 @@
       <c r="C97">
         <v>7.31</v>
       </c>
-      <c r="F97">
-        <v>7.31</v>
-      </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>fulfillment</t>
         </is>
@@ -2173,10 +1859,7 @@
       <c r="C98">
         <v>7.31</v>
       </c>
-      <c r="F98">
-        <v>7.31</v>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>coral</t>
         </is>
@@ -2191,10 +1874,7 @@
       <c r="C99">
         <v>7.31</v>
       </c>
-      <c r="F99">
-        <v>7.31</v>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>defenceless</t>
         </is>
@@ -2209,10 +1889,7 @@
       <c r="C100">
         <v>7.32</v>
       </c>
-      <c r="F100">
-        <v>7.32</v>
-      </c>
-      <c r="H100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>poverty</t>
         </is>
@@ -2224,19 +1901,13 @@
           <t>basketball</t>
         </is>
       </c>
-      <c r="B101">
-        <v>0.25</v>
-      </c>
       <c r="C101">
         <v>7.32</v>
       </c>
       <c r="D101">
-        <v>5.2</v>
-      </c>
-      <c r="F101">
-        <v>7.32</v>
-      </c>
-      <c r="H101" t="inlineStr">
+        <v>0.25</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>basketball</t>
         </is>
@@ -2251,10 +1922,7 @@
       <c r="C102">
         <v>7.32</v>
       </c>
-      <c r="F102">
-        <v>7.32</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>boomerang</t>
         </is>
@@ -2269,10 +1937,7 @@
       <c r="C103">
         <v>7.32</v>
       </c>
-      <c r="F103">
-        <v>7.32</v>
-      </c>
-      <c r="H103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>discovery</t>
         </is>
@@ -2287,10 +1952,7 @@
       <c r="C104">
         <v>7.32</v>
       </c>
-      <c r="F104">
-        <v>7.32</v>
-      </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>cunning</t>
         </is>
@@ -2305,10 +1967,7 @@
       <c r="C105">
         <v>7.32</v>
       </c>
-      <c r="F105">
-        <v>7.32</v>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>pianist</t>
         </is>
@@ -2323,10 +1982,7 @@
       <c r="C106">
         <v>7.32</v>
       </c>
-      <c r="F106">
-        <v>7.32</v>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>quartet</t>
         </is>
@@ -2341,10 +1997,7 @@
       <c r="C107">
         <v>7.32</v>
       </c>
-      <c r="F107">
-        <v>7.32</v>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>jetty</t>
         </is>
@@ -2359,10 +2012,7 @@
       <c r="C108">
         <v>7.32</v>
       </c>
-      <c r="F108">
-        <v>7.32</v>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>refuse</t>
         </is>
@@ -2374,19 +2024,13 @@
           <t>bikini</t>
         </is>
       </c>
-      <c r="B109">
-        <v>0.37</v>
-      </c>
       <c r="C109">
         <v>7.33</v>
       </c>
       <c r="D109">
-        <v>4.8</v>
-      </c>
-      <c r="F109">
-        <v>7.33</v>
-      </c>
-      <c r="H109" t="inlineStr">
+        <v>0.37</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>bikini</t>
         </is>
@@ -2401,10 +2045,7 @@
       <c r="C110">
         <v>7.33</v>
       </c>
-      <c r="F110">
-        <v>7.33</v>
-      </c>
-      <c r="H110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>intestines</t>
         </is>
@@ -2419,10 +2060,7 @@
       <c r="C111">
         <v>7.33</v>
       </c>
-      <c r="F111">
-        <v>7.33</v>
-      </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>magnetic</t>
         </is>
@@ -2437,10 +2075,7 @@
       <c r="C112">
         <v>7.35</v>
       </c>
-      <c r="F112">
-        <v>7.35</v>
-      </c>
-      <c r="H112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>prove</t>
         </is>
@@ -2455,10 +2090,7 @@
       <c r="C113">
         <v>7.35</v>
       </c>
-      <c r="F113">
-        <v>7.35</v>
-      </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>commitment</t>
         </is>
@@ -2473,10 +2105,7 @@
       <c r="C114">
         <v>7.35</v>
       </c>
-      <c r="F114">
-        <v>7.35</v>
-      </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>insert</t>
         </is>
@@ -2491,10 +2120,7 @@
       <c r="C115">
         <v>7.35</v>
       </c>
-      <c r="F115">
-        <v>7.35</v>
-      </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>territory</t>
         </is>
@@ -2509,10 +2135,7 @@
       <c r="C116">
         <v>7.35</v>
       </c>
-      <c r="F116">
-        <v>7.35</v>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>be valid</t>
         </is>
@@ -2527,10 +2150,7 @@
       <c r="C117">
         <v>7.35</v>
       </c>
-      <c r="F117">
-        <v>7.35</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>design</t>
         </is>
@@ -2545,10 +2165,7 @@
       <c r="C118">
         <v>7.35</v>
       </c>
-      <c r="F118">
-        <v>7.35</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>gratis</t>
         </is>
@@ -2563,10 +2180,7 @@
       <c r="C119">
         <v>7.35</v>
       </c>
-      <c r="F119">
-        <v>7.35</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>milky way</t>
         </is>
@@ -2581,10 +2195,7 @@
       <c r="C120">
         <v>7.35</v>
       </c>
-      <c r="F120">
-        <v>7.35</v>
-      </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>safari</t>
         </is>
@@ -2599,10 +2210,7 @@
       <c r="C121">
         <v>7.35</v>
       </c>
-      <c r="F121">
-        <v>7.35</v>
-      </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>reel</t>
         </is>
@@ -2617,10 +2225,7 @@
       <c r="C122">
         <v>7.35</v>
       </c>
-      <c r="F122">
-        <v>7.35</v>
-      </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>wimp</t>
         </is>
@@ -2635,10 +2240,7 @@
       <c r="C123">
         <v>7.35</v>
       </c>
-      <c r="F123">
-        <v>7.35</v>
-      </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>tender</t>
         </is>
@@ -2653,10 +2255,7 @@
       <c r="C124">
         <v>7.35</v>
       </c>
-      <c r="F124">
-        <v>7.35</v>
-      </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>agree</t>
         </is>
@@ -2671,10 +2270,7 @@
       <c r="C125">
         <v>7.36</v>
       </c>
-      <c r="F125">
-        <v>7.36</v>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>dangle</t>
         </is>
@@ -2689,10 +2285,7 @@
       <c r="C126">
         <v>7.36</v>
       </c>
-      <c r="F126">
-        <v>7.36</v>
-      </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>portray</t>
         </is>
@@ -2707,10 +2300,7 @@
       <c r="C127">
         <v>7.36</v>
       </c>
-      <c r="F127">
-        <v>7.36</v>
-      </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>claim</t>
         </is>
@@ -2725,10 +2315,7 @@
       <c r="C128">
         <v>7.36</v>
       </c>
-      <c r="F128">
-        <v>7.36</v>
-      </c>
-      <c r="H128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
@@ -2743,10 +2330,7 @@
       <c r="C129">
         <v>7.36</v>
       </c>
-      <c r="F129">
-        <v>7.36</v>
-      </c>
-      <c r="H129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>minigolf</t>
         </is>
@@ -2761,10 +2345,7 @@
       <c r="C130">
         <v>7.36</v>
       </c>
-      <c r="F130">
-        <v>7.36</v>
-      </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>ski run</t>
         </is>
@@ -2779,10 +2360,7 @@
       <c r="C131">
         <v>7.37</v>
       </c>
-      <c r="F131">
-        <v>7.37</v>
-      </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>capture</t>
         </is>
@@ -2797,10 +2375,7 @@
       <c r="C132">
         <v>7.37</v>
       </c>
-      <c r="F132">
-        <v>7.37</v>
-      </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>lard</t>
         </is>
@@ -2815,10 +2390,7 @@
       <c r="C133">
         <v>7.38</v>
       </c>
-      <c r="F133">
-        <v>7.38</v>
-      </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>magician</t>
         </is>
@@ -2833,10 +2405,7 @@
       <c r="C134">
         <v>7.39</v>
       </c>
-      <c r="F134">
-        <v>7.39</v>
-      </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>flare</t>
         </is>
@@ -2851,10 +2420,7 @@
       <c r="C135">
         <v>7.39</v>
       </c>
-      <c r="F135">
-        <v>7.39</v>
-      </c>
-      <c r="H135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>clueless</t>
         </is>
@@ -2869,10 +2435,7 @@
       <c r="C136">
         <v>7.39</v>
       </c>
-      <c r="F136">
-        <v>7.39</v>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>reserved</t>
         </is>
@@ -2887,10 +2450,7 @@
       <c r="C137">
         <v>7.39</v>
       </c>
-      <c r="F137">
-        <v>7.39</v>
-      </c>
-      <c r="H137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>intellect</t>
         </is>
@@ -2905,10 +2465,7 @@
       <c r="C138">
         <v>7.4</v>
       </c>
-      <c r="F138">
-        <v>7.4</v>
-      </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>horrified</t>
         </is>
@@ -2923,10 +2480,7 @@
       <c r="C139">
         <v>7.4</v>
       </c>
-      <c r="F139">
-        <v>7.4</v>
-      </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>canal</t>
         </is>
@@ -2941,10 +2495,7 @@
       <c r="C140">
         <v>7.4</v>
       </c>
-      <c r="F140">
-        <v>7.4</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>convince</t>
         </is>
@@ -2959,10 +2510,7 @@
       <c r="C141">
         <v>7.41</v>
       </c>
-      <c r="F141">
-        <v>7.41</v>
-      </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>participation</t>
         </is>
@@ -2977,10 +2525,7 @@
       <c r="C142">
         <v>7.42</v>
       </c>
-      <c r="F142">
-        <v>7.42</v>
-      </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>misery</t>
         </is>
@@ -2995,10 +2540,7 @@
       <c r="C143">
         <v>7.42</v>
       </c>
-      <c r="F143">
-        <v>7.42</v>
-      </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>feel</t>
         </is>
@@ -3013,10 +2555,7 @@
       <c r="C144">
         <v>7.42</v>
       </c>
-      <c r="F144">
-        <v>7.42</v>
-      </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>clearing</t>
         </is>
@@ -3031,19 +2570,13 @@
       <c r="C145">
         <v>7.42</v>
       </c>
-      <c r="F145">
-        <v>7.42</v>
-      </c>
-      <c r="H145" t="inlineStr">
+      <c r="E145">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="G145" t="inlineStr">
         <is>
           <t>microphone</t>
         </is>
-      </c>
-      <c r="I145">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="J145">
-        <v>6.25</v>
       </c>
     </row>
     <row r="146">
@@ -3055,10 +2588,7 @@
       <c r="C146">
         <v>7.42</v>
       </c>
-      <c r="F146">
-        <v>7.42</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>carefree</t>
         </is>
@@ -3073,10 +2603,7 @@
       <c r="C147">
         <v>7.43</v>
       </c>
-      <c r="F147">
-        <v>7.43</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>form</t>
         </is>
@@ -3091,10 +2618,7 @@
       <c r="C148">
         <v>7.43</v>
       </c>
-      <c r="F148">
-        <v>7.43</v>
-      </c>
-      <c r="H148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>suffer</t>
         </is>
@@ -3109,10 +2633,7 @@
       <c r="C149">
         <v>7.43</v>
       </c>
-      <c r="F149">
-        <v>7.43</v>
-      </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>position</t>
         </is>
@@ -3127,10 +2648,7 @@
       <c r="C150">
         <v>7.43</v>
       </c>
-      <c r="F150">
-        <v>7.43</v>
-      </c>
-      <c r="H150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>arbour</t>
         </is>
@@ -3145,10 +2663,7 @@
       <c r="C151">
         <v>7.43</v>
       </c>
-      <c r="F151">
-        <v>7.43</v>
-      </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>lottery</t>
         </is>
@@ -3163,10 +2678,7 @@
       <c r="C152">
         <v>7.43</v>
       </c>
-      <c r="F152">
-        <v>7.43</v>
-      </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>disadvantage</t>
         </is>
@@ -3181,10 +2693,7 @@
       <c r="C153">
         <v>7.44</v>
       </c>
-      <c r="F153">
-        <v>7.44</v>
-      </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>sender</t>
         </is>
@@ -3199,10 +2708,7 @@
       <c r="C154">
         <v>7.44</v>
       </c>
-      <c r="F154">
-        <v>7.44</v>
-      </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>avenue</t>
         </is>
@@ -3217,10 +2723,7 @@
       <c r="C155">
         <v>7.44</v>
       </c>
-      <c r="F155">
-        <v>7.44</v>
-      </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>bacterium</t>
         </is>
@@ -3235,10 +2738,7 @@
       <c r="C156">
         <v>7.44</v>
       </c>
-      <c r="F156">
-        <v>7.44</v>
-      </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>relaxation</t>
         </is>
@@ -3253,10 +2753,7 @@
       <c r="C157">
         <v>7.44</v>
       </c>
-      <c r="F157">
-        <v>7.44</v>
-      </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>necessitate</t>
         </is>
@@ -3271,10 +2768,7 @@
       <c r="C158">
         <v>7.44</v>
       </c>
-      <c r="F158">
-        <v>7.44</v>
-      </c>
-      <c r="H158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>greenhouse</t>
         </is>
@@ -3289,10 +2783,7 @@
       <c r="C159">
         <v>7.44</v>
       </c>
-      <c r="F159">
-        <v>7.44</v>
-      </c>
-      <c r="H159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>joker</t>
         </is>
@@ -3307,10 +2798,7 @@
       <c r="C160">
         <v>7.44</v>
       </c>
-      <c r="F160">
-        <v>7.44</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>valve</t>
         </is>
@@ -3325,10 +2813,7 @@
       <c r="C161">
         <v>7.45</v>
       </c>
-      <c r="F161">
-        <v>7.45</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>radio set</t>
         </is>
@@ -3343,10 +2828,7 @@
       <c r="C162">
         <v>7.45</v>
       </c>
-      <c r="F162">
-        <v>7.45</v>
-      </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>jewel</t>
         </is>
@@ -3361,10 +2843,7 @@
       <c r="C163">
         <v>7.45</v>
       </c>
-      <c r="F163">
-        <v>7.45</v>
-      </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>tend</t>
         </is>
@@ -3379,10 +2858,7 @@
       <c r="C164">
         <v>7.46</v>
       </c>
-      <c r="F164">
-        <v>7.46</v>
-      </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
@@ -3397,10 +2873,7 @@
       <c r="C165">
         <v>7.46</v>
       </c>
-      <c r="F165">
-        <v>7.46</v>
-      </c>
-      <c r="H165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>reporter</t>
         </is>
@@ -3415,10 +2888,7 @@
       <c r="C166">
         <v>7.47</v>
       </c>
-      <c r="F166">
-        <v>7.47</v>
-      </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>jealousy</t>
         </is>
@@ -3433,10 +2903,7 @@
       <c r="C167">
         <v>7.47</v>
       </c>
-      <c r="F167">
-        <v>7.47</v>
-      </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>have a chat</t>
         </is>
@@ -3451,10 +2918,7 @@
       <c r="C168">
         <v>7.47</v>
       </c>
-      <c r="F168">
-        <v>7.47</v>
-      </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>stable</t>
         </is>
@@ -3469,10 +2933,7 @@
       <c r="C169">
         <v>7.48</v>
       </c>
-      <c r="F169">
-        <v>7.48</v>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>giving out</t>
         </is>
@@ -3487,10 +2948,7 @@
       <c r="C170">
         <v>7.48</v>
       </c>
-      <c r="F170">
-        <v>7.48</v>
-      </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>talon</t>
         </is>
@@ -3505,10 +2963,7 @@
       <c r="C171">
         <v>7.48</v>
       </c>
-      <c r="F171">
-        <v>7.48</v>
-      </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>scythe</t>
         </is>
@@ -3523,10 +2978,7 @@
       <c r="C172">
         <v>7.48</v>
       </c>
-      <c r="F172">
-        <v>7.48</v>
-      </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>distinguished</t>
         </is>
@@ -3541,10 +2993,7 @@
       <c r="C173">
         <v>7.5</v>
       </c>
-      <c r="F173">
-        <v>7.5</v>
-      </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>encounter</t>
         </is>
@@ -3559,10 +3008,7 @@
       <c r="C174">
         <v>7.5</v>
       </c>
-      <c r="F174">
-        <v>7.5</v>
-      </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>fulfill</t>
         </is>
@@ -3577,10 +3023,7 @@
       <c r="C175">
         <v>7.5</v>
       </c>
-      <c r="F175">
-        <v>7.5</v>
-      </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>hamburger</t>
         </is>
@@ -3595,10 +3038,7 @@
       <c r="C176">
         <v>7.5</v>
       </c>
-      <c r="F176">
-        <v>7.5</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>ideal</t>
         </is>
@@ -3613,10 +3053,7 @@
       <c r="C177">
         <v>7.5</v>
       </c>
-      <c r="F177">
-        <v>7.5</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>larva</t>
         </is>
@@ -3631,10 +3068,7 @@
       <c r="C178">
         <v>7.5</v>
       </c>
-      <c r="F178">
-        <v>7.5</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>alleviate</t>
         </is>
@@ -3649,10 +3083,7 @@
       <c r="C179">
         <v>7.5</v>
       </c>
-      <c r="F179">
-        <v>7.5</v>
-      </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>brand name</t>
         </is>
@@ -3667,10 +3098,7 @@
       <c r="C180">
         <v>7.5</v>
       </c>
-      <c r="F180">
-        <v>7.5</v>
-      </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>newt</t>
         </is>
@@ -3685,10 +3113,7 @@
       <c r="C181">
         <v>7.5</v>
       </c>
-      <c r="F181">
-        <v>7.5</v>
-      </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>oasis</t>
         </is>
@@ -3703,10 +3128,7 @@
       <c r="C182">
         <v>7.5</v>
       </c>
-      <c r="F182">
-        <v>7.5</v>
-      </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>position</t>
         </is>
@@ -3721,10 +3143,7 @@
       <c r="C183">
         <v>7.5</v>
       </c>
-      <c r="F183">
-        <v>7.5</v>
-      </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>attract</t>
         </is>
@@ -3739,10 +3158,7 @@
       <c r="C184">
         <v>7.5</v>
       </c>
-      <c r="F184">
-        <v>7.5</v>
-      </c>
-      <c r="H184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>chivalrous</t>
         </is>
@@ -3757,10 +3173,7 @@
       <c r="C185">
         <v>7.5</v>
       </c>
-      <c r="F185">
-        <v>7.5</v>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>shock</t>
         </is>
@@ -3775,10 +3188,7 @@
       <c r="C186">
         <v>7.5</v>
       </c>
-      <c r="F186">
-        <v>7.5</v>
-      </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>secure</t>
         </is>
@@ -3793,10 +3203,7 @@
       <c r="C187">
         <v>7.5</v>
       </c>
-      <c r="F187">
-        <v>7.5</v>
-      </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>suspense</t>
         </is>
@@ -3811,10 +3218,7 @@
       <c r="C188">
         <v>7.5</v>
       </c>
-      <c r="F188">
-        <v>7.5</v>
-      </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>stammer</t>
         </is>
@@ -3829,10 +3233,7 @@
       <c r="C189">
         <v>7.5</v>
       </c>
-      <c r="F189">
-        <v>7.5</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>veranda</t>
         </is>
@@ -3847,10 +3248,7 @@
       <c r="C190">
         <v>7.52</v>
       </c>
-      <c r="F190">
-        <v>7.52</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
@@ -3865,10 +3263,7 @@
       <c r="C191">
         <v>7.52</v>
       </c>
-      <c r="F191">
-        <v>7.52</v>
-      </c>
-      <c r="H191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>mummy</t>
         </is>
@@ -3883,10 +3278,7 @@
       <c r="C192">
         <v>7.52</v>
       </c>
-      <c r="F192">
-        <v>7.52</v>
-      </c>
-      <c r="H192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>sceptre</t>
         </is>
@@ -3901,10 +3293,7 @@
       <c r="C193">
         <v>7.53</v>
       </c>
-      <c r="F193">
-        <v>7.53</v>
-      </c>
-      <c r="H193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>area</t>
         </is>
@@ -3919,10 +3308,7 @@
       <c r="C194">
         <v>7.53</v>
       </c>
-      <c r="F194">
-        <v>7.53</v>
-      </c>
-      <c r="H194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>law</t>
         </is>
@@ -3934,19 +3320,13 @@
           <t>hobel</t>
         </is>
       </c>
-      <c r="B195">
-        <v>0.68</v>
-      </c>
       <c r="C195">
         <v>7.53</v>
       </c>
       <c r="D195">
-        <v>4.55</v>
-      </c>
-      <c r="F195">
-        <v>7.53</v>
-      </c>
-      <c r="H195" t="inlineStr">
+        <v>0.68</v>
+      </c>
+      <c r="G195" t="inlineStr">
         <is>
           <t>plane</t>
         </is>
@@ -3961,10 +3341,7 @@
       <c r="C196">
         <v>7.53</v>
       </c>
-      <c r="F196">
-        <v>7.53</v>
-      </c>
-      <c r="H196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>cruise</t>
         </is>
@@ -3979,10 +3356,7 @@
       <c r="C197">
         <v>7.53</v>
       </c>
-      <c r="F197">
-        <v>7.53</v>
-      </c>
-      <c r="H197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>mockery</t>
         </is>
@@ -3997,10 +3371,7 @@
       <c r="C198">
         <v>7.53</v>
       </c>
-      <c r="F198">
-        <v>7.53</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>overcome</t>
         </is>
@@ -4015,10 +3386,7 @@
       <c r="C199">
         <v>7.53</v>
       </c>
-      <c r="F199">
-        <v>7.53</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>have to thank to</t>
         </is>
@@ -4033,10 +3401,7 @@
       <c r="C200">
         <v>7.53</v>
       </c>
-      <c r="F200">
-        <v>7.53</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>reproach</t>
         </is>
@@ -4048,19 +3413,13 @@
           <t>gabelstapler</t>
         </is>
       </c>
-      <c r="B201">
-        <v>0.21</v>
-      </c>
       <c r="C201">
         <v>7.54</v>
       </c>
       <c r="D201">
-        <v>4.8</v>
-      </c>
-      <c r="F201">
-        <v>7.54</v>
-      </c>
-      <c r="H201" t="inlineStr">
+        <v>0.21</v>
+      </c>
+      <c r="G201" t="inlineStr">
         <is>
           <t>forklift truck</t>
         </is>
@@ -4075,10 +3434,7 @@
       <c r="C202">
         <v>7.54</v>
       </c>
-      <c r="F202">
-        <v>7.54</v>
-      </c>
-      <c r="H202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
@@ -4093,10 +3449,7 @@
       <c r="C203">
         <v>7.54</v>
       </c>
-      <c r="F203">
-        <v>7.54</v>
-      </c>
-      <c r="H203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>care</t>
         </is>
@@ -4111,10 +3464,7 @@
       <c r="C204">
         <v>7.54</v>
       </c>
-      <c r="F204">
-        <v>7.54</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>cylinder</t>
         </is>
@@ -4129,10 +3479,7 @@
       <c r="C205">
         <v>7.56</v>
       </c>
-      <c r="F205">
-        <v>7.56</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>don</t>
         </is>
@@ -4147,10 +3494,7 @@
       <c r="C206">
         <v>7.56</v>
       </c>
-      <c r="F206">
-        <v>7.56</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>army</t>
         </is>
@@ -4165,10 +3509,7 @@
       <c r="C207">
         <v>7.56</v>
       </c>
-      <c r="F207">
-        <v>7.56</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>carry the can for</t>
         </is>
@@ -4183,10 +3524,7 @@
       <c r="C208">
         <v>7.56</v>
       </c>
-      <c r="F208">
-        <v>7.56</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>iceberg</t>
         </is>
@@ -4201,10 +3539,7 @@
       <c r="C209">
         <v>7.56</v>
       </c>
-      <c r="F209">
-        <v>7.56</v>
-      </c>
-      <c r="H209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>rye</t>
         </is>
@@ -4219,10 +3554,7 @@
       <c r="C210">
         <v>7.56</v>
       </c>
-      <c r="F210">
-        <v>7.56</v>
-      </c>
-      <c r="H210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>faithful</t>
         </is>
@@ -4237,10 +3569,7 @@
       <c r="C211">
         <v>7.56</v>
       </c>
-      <c r="F211">
-        <v>7.56</v>
-      </c>
-      <c r="H211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>typical</t>
         </is>
@@ -4255,10 +3584,7 @@
       <c r="C212">
         <v>7.56</v>
       </c>
-      <c r="F212">
-        <v>7.56</v>
-      </c>
-      <c r="H212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>waltz</t>
         </is>
@@ -4273,10 +3599,7 @@
       <c r="C213">
         <v>7.56</v>
       </c>
-      <c r="F213">
-        <v>7.56</v>
-      </c>
-      <c r="H213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>zeppelin</t>
         </is>
@@ -4291,10 +3614,7 @@
       <c r="C214">
         <v>7.57</v>
       </c>
-      <c r="F214">
-        <v>7.57</v>
-      </c>
-      <c r="H214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>rise</t>
         </is>
@@ -4309,10 +3629,7 @@
       <c r="C215">
         <v>7.57</v>
       </c>
-      <c r="F215">
-        <v>7.57</v>
-      </c>
-      <c r="H215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>gossip</t>
         </is>
@@ -4324,28 +3641,19 @@
           <t>harfe</t>
         </is>
       </c>
-      <c r="B216">
-        <v>1.77</v>
-      </c>
       <c r="C216">
         <v>7.57</v>
       </c>
       <c r="D216">
-        <v>4.8</v>
-      </c>
-      <c r="F216">
-        <v>7.57</v>
-      </c>
-      <c r="H216" t="inlineStr">
+        <v>1.77</v>
+      </c>
+      <c r="E216">
+        <v>10.54</v>
+      </c>
+      <c r="G216" t="inlineStr">
         <is>
           <t>harp</t>
         </is>
-      </c>
-      <c r="I216">
-        <v>10.54</v>
-      </c>
-      <c r="J216">
-        <v>7.93</v>
       </c>
     </row>
     <row r="217">
@@ -4357,10 +3665,7 @@
       <c r="C217">
         <v>7.57</v>
       </c>
-      <c r="F217">
-        <v>7.57</v>
-      </c>
-      <c r="H217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>cork</t>
         </is>
@@ -4375,10 +3680,7 @@
       <c r="C218">
         <v>7.57</v>
       </c>
-      <c r="F218">
-        <v>7.57</v>
-      </c>
-      <c r="H218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>grumble</t>
         </is>
@@ -4393,19 +3695,13 @@
       <c r="C219">
         <v>7.57</v>
       </c>
-      <c r="F219">
-        <v>7.57</v>
-      </c>
-      <c r="H219" t="inlineStr">
+      <c r="E219">
+        <v>7.21</v>
+      </c>
+      <c r="G219" t="inlineStr">
         <is>
           <t>medal</t>
         </is>
-      </c>
-      <c r="I219">
-        <v>7.21</v>
-      </c>
-      <c r="J219">
-        <v>6.84</v>
       </c>
     </row>
     <row r="220">
@@ -4417,10 +3713,7 @@
       <c r="C220">
         <v>7.57</v>
       </c>
-      <c r="F220">
-        <v>7.57</v>
-      </c>
-      <c r="H220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>security</t>
         </is>
@@ -4435,10 +3728,7 @@
       <c r="C221">
         <v>7.58</v>
       </c>
-      <c r="F221">
-        <v>7.58</v>
-      </c>
-      <c r="H221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>quote</t>
         </is>
@@ -4453,10 +3743,7 @@
       <c r="C222">
         <v>7.58</v>
       </c>
-      <c r="F222">
-        <v>7.58</v>
-      </c>
-      <c r="H222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>bandit</t>
         </is>
@@ -4471,10 +3758,7 @@
       <c r="C223">
         <v>7.58</v>
       </c>
-      <c r="F223">
-        <v>7.58</v>
-      </c>
-      <c r="H223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>miserliness</t>
         </is>
@@ -4489,10 +3773,7 @@
       <c r="C224">
         <v>7.58</v>
       </c>
-      <c r="F224">
-        <v>7.58</v>
-      </c>
-      <c r="H224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>throat</t>
         </is>
@@ -4507,10 +3788,7 @@
       <c r="C225">
         <v>7.58</v>
       </c>
-      <c r="F225">
-        <v>7.58</v>
-      </c>
-      <c r="H225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>slave away</t>
         </is>
@@ -4525,10 +3803,7 @@
       <c r="C226">
         <v>7.58</v>
       </c>
-      <c r="F226">
-        <v>7.58</v>
-      </c>
-      <c r="H226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>situation</t>
         </is>
@@ -4543,10 +3818,7 @@
       <c r="C227">
         <v>7.58</v>
       </c>
-      <c r="F227">
-        <v>7.58</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>troops</t>
         </is>
@@ -4561,10 +3833,7 @@
       <c r="C228">
         <v>7.58</v>
       </c>
-      <c r="F228">
-        <v>7.58</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>widow</t>
         </is>
@@ -4579,19 +3848,13 @@
       <c r="C229">
         <v>7.59</v>
       </c>
-      <c r="F229">
-        <v>7.59</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="E229">
+        <v>7.21</v>
+      </c>
+      <c r="G229" t="inlineStr">
         <is>
           <t>diamond</t>
         </is>
-      </c>
-      <c r="I229">
-        <v>7.21</v>
-      </c>
-      <c r="J229">
-        <v>6.64</v>
       </c>
     </row>
     <row r="230">
@@ -4603,10 +3866,7 @@
       <c r="C230">
         <v>7.59</v>
       </c>
-      <c r="F230">
-        <v>7.59</v>
-      </c>
-      <c r="H230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>agreement</t>
         </is>
@@ -4621,10 +3881,7 @@
       <c r="C231">
         <v>7.59</v>
       </c>
-      <c r="F231">
-        <v>7.59</v>
-      </c>
-      <c r="H231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>success</t>
         </is>
@@ -4639,10 +3896,7 @@
       <c r="C232">
         <v>7.59</v>
       </c>
-      <c r="F232">
-        <v>7.59</v>
-      </c>
-      <c r="H232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>fuse</t>
         </is>
@@ -4657,10 +3911,7 @@
       <c r="C233">
         <v>7.6</v>
       </c>
-      <c r="F233">
-        <v>7.6</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>emphasize</t>
         </is>
@@ -4675,10 +3926,7 @@
       <c r="C234">
         <v>7.6</v>
       </c>
-      <c r="F234">
-        <v>7.6</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>decorate</t>
         </is>
@@ -4693,10 +3941,7 @@
       <c r="C235">
         <v>7.6</v>
       </c>
-      <c r="F235">
-        <v>7.6</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>service</t>
         </is>
@@ -4711,10 +3956,7 @@
       <c r="C236">
         <v>7.6</v>
       </c>
-      <c r="F236">
-        <v>7.6</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>spy</t>
         </is>
@@ -4729,10 +3971,7 @@
       <c r="C237">
         <v>7.6</v>
       </c>
-      <c r="F237">
-        <v>7.6</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>symbol</t>
         </is>
@@ -4747,10 +3986,7 @@
       <c r="C238">
         <v>7.6</v>
       </c>
-      <c r="F238">
-        <v>7.6</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>wisdom</t>
         </is>
@@ -4765,10 +4001,7 @@
       <c r="C239">
         <v>7.61</v>
       </c>
-      <c r="F239">
-        <v>7.61</v>
-      </c>
-      <c r="H239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>strengthen</t>
         </is>
@@ -4783,10 +4016,7 @@
       <c r="C240">
         <v>7.62</v>
       </c>
-      <c r="F240">
-        <v>7.62</v>
-      </c>
-      <c r="H240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>avoid</t>
         </is>
@@ -4801,10 +4031,7 @@
       <c r="C241">
         <v>7.63</v>
       </c>
-      <c r="F241">
-        <v>7.63</v>
-      </c>
-      <c r="H241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>energy</t>
         </is>
@@ -4819,10 +4046,7 @@
       <c r="C242">
         <v>7.63</v>
       </c>
-      <c r="F242">
-        <v>7.63</v>
-      </c>
-      <c r="H242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>golf</t>
         </is>
@@ -4837,10 +4061,7 @@
       <c r="C243">
         <v>7.63</v>
       </c>
-      <c r="F243">
-        <v>7.63</v>
-      </c>
-      <c r="H243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>notch</t>
         </is>
@@ -4855,10 +4076,7 @@
       <c r="C244">
         <v>7.63</v>
       </c>
-      <c r="F244">
-        <v>7.63</v>
-      </c>
-      <c r="H244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>continent</t>
         </is>
@@ -4873,10 +4091,7 @@
       <c r="C245">
         <v>7.63</v>
       </c>
-      <c r="F245">
-        <v>7.63</v>
-      </c>
-      <c r="H245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>mass</t>
         </is>
@@ -4891,10 +4106,7 @@
       <c r="C246">
         <v>7.63</v>
       </c>
-      <c r="F246">
-        <v>7.63</v>
-      </c>
-      <c r="H246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>rent</t>
         </is>
@@ -4909,10 +4121,7 @@
       <c r="C247">
         <v>7.63</v>
       </c>
-      <c r="F247">
-        <v>7.63</v>
-      </c>
-      <c r="H247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>jester</t>
         </is>
@@ -4927,10 +4136,7 @@
       <c r="C248">
         <v>7.63</v>
       </c>
-      <c r="F248">
-        <v>7.63</v>
-      </c>
-      <c r="H248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>contusion</t>
         </is>
@@ -4945,10 +4151,7 @@
       <c r="C249">
         <v>7.63</v>
       </c>
-      <c r="F249">
-        <v>7.63</v>
-      </c>
-      <c r="H249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>protest</t>
         </is>
@@ -4960,19 +4163,13 @@
           <t>sichel</t>
         </is>
       </c>
-      <c r="B250">
-        <v>1.57</v>
-      </c>
       <c r="C250">
         <v>7.63</v>
       </c>
       <c r="D250">
-        <v>4.65</v>
-      </c>
-      <c r="F250">
-        <v>7.63</v>
-      </c>
-      <c r="H250" t="inlineStr">
+        <v>1.57</v>
+      </c>
+      <c r="G250" t="inlineStr">
         <is>
           <t>sickle</t>
         </is>
@@ -4987,10 +4184,7 @@
       <c r="C251">
         <v>7.63</v>
       </c>
-      <c r="F251">
-        <v>7.63</v>
-      </c>
-      <c r="H251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>assurance</t>
         </is>
@@ -5005,10 +4199,7 @@
       <c r="C252">
         <v>7.64</v>
       </c>
-      <c r="F252">
-        <v>7.64</v>
-      </c>
-      <c r="H252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>jaguar</t>
         </is>
@@ -5020,28 +4211,19 @@
           <t>krawatte</t>
         </is>
       </c>
-      <c r="B253">
-        <v>6.34</v>
-      </c>
       <c r="C253">
         <v>7.64</v>
       </c>
       <c r="D253">
-        <v>4.75</v>
-      </c>
-      <c r="F253">
-        <v>7.64</v>
-      </c>
-      <c r="H253" t="inlineStr">
+        <v>6.34</v>
+      </c>
+      <c r="E253">
+        <v>4.71</v>
+      </c>
+      <c r="G253" t="inlineStr">
         <is>
           <t>tie</t>
         </is>
-      </c>
-      <c r="I253">
-        <v>4.71</v>
-      </c>
-      <c r="J253">
-        <v>5.26</v>
       </c>
     </row>
     <row r="254">
@@ -5053,10 +4235,7 @@
       <c r="C254">
         <v>7.64</v>
       </c>
-      <c r="F254">
-        <v>7.64</v>
-      </c>
-      <c r="H254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>feeble</t>
         </is>
@@ -5071,10 +4250,7 @@
       <c r="C255">
         <v>7.64</v>
       </c>
-      <c r="F255">
-        <v>7.64</v>
-      </c>
-      <c r="H255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>narcosis</t>
         </is>
@@ -5089,10 +4265,7 @@
       <c r="C256">
         <v>7.64</v>
       </c>
-      <c r="F256">
-        <v>7.64</v>
-      </c>
-      <c r="H256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>rock band</t>
         </is>
@@ -5107,10 +4280,7 @@
       <c r="C257">
         <v>7.65</v>
       </c>
-      <c r="F257">
-        <v>7.65</v>
-      </c>
-      <c r="H257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>abyss</t>
         </is>
@@ -5125,10 +4295,7 @@
       <c r="C258">
         <v>7.65</v>
       </c>
-      <c r="F258">
-        <v>7.65</v>
-      </c>
-      <c r="H258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>paragraph</t>
         </is>
@@ -5143,10 +4310,7 @@
       <c r="C259">
         <v>7.65</v>
       </c>
-      <c r="F259">
-        <v>7.65</v>
-      </c>
-      <c r="H259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>instead of</t>
         </is>
@@ -5161,10 +4325,7 @@
       <c r="C260">
         <v>7.65</v>
       </c>
-      <c r="F260">
-        <v>7.65</v>
-      </c>
-      <c r="H260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>dagger</t>
         </is>
@@ -5179,10 +4340,7 @@
       <c r="C261">
         <v>7.65</v>
       </c>
-      <c r="F261">
-        <v>7.65</v>
-      </c>
-      <c r="H261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>crystal-clear</t>
         </is>
@@ -5197,10 +4355,7 @@
       <c r="C262">
         <v>7.65</v>
       </c>
-      <c r="F262">
-        <v>7.65</v>
-      </c>
-      <c r="H262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>parquet</t>
         </is>
@@ -5215,10 +4370,7 @@
       <c r="C263">
         <v>7.65</v>
       </c>
-      <c r="F263">
-        <v>7.65</v>
-      </c>
-      <c r="H263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>artful</t>
         </is>
@@ -5233,10 +4385,7 @@
       <c r="C264">
         <v>7.65</v>
       </c>
-      <c r="F264">
-        <v>7.65</v>
-      </c>
-      <c r="H264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>technical</t>
         </is>
@@ -5251,10 +4400,7 @@
       <c r="C265">
         <v>7.67</v>
       </c>
-      <c r="F265">
-        <v>7.67</v>
-      </c>
-      <c r="H265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>essay</t>
         </is>
@@ -5269,10 +4415,7 @@
       <c r="C266">
         <v>7.67</v>
       </c>
-      <c r="F266">
-        <v>7.67</v>
-      </c>
-      <c r="H266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>oyster</t>
         </is>
@@ -5287,10 +4430,7 @@
       <c r="C267">
         <v>7.67</v>
       </c>
-      <c r="F267">
-        <v>7.67</v>
-      </c>
-      <c r="H267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>contribute</t>
         </is>
@@ -5305,10 +4445,7 @@
       <c r="C268">
         <v>7.67</v>
       </c>
-      <c r="F268">
-        <v>7.67</v>
-      </c>
-      <c r="H268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>choir practice</t>
         </is>
@@ -5323,10 +4460,7 @@
       <c r="C269">
         <v>7.67</v>
       </c>
-      <c r="F269">
-        <v>7.67</v>
-      </c>
-      <c r="H269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>clever</t>
         </is>
@@ -5341,10 +4475,7 @@
       <c r="C270">
         <v>7.67</v>
       </c>
-      <c r="F270">
-        <v>7.67</v>
-      </c>
-      <c r="H270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>expectation</t>
         </is>
@@ -5359,10 +4490,7 @@
       <c r="C271">
         <v>7.67</v>
       </c>
-      <c r="F271">
-        <v>7.67</v>
-      </c>
-      <c r="H271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>young wild boar</t>
         </is>
@@ -5377,10 +4505,7 @@
       <c r="C272">
         <v>7.67</v>
       </c>
-      <c r="F272">
-        <v>7.67</v>
-      </c>
-      <c r="H272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>monastery</t>
         </is>
@@ -5395,10 +4520,7 @@
       <c r="C273">
         <v>7.67</v>
       </c>
-      <c r="F273">
-        <v>7.67</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>customer</t>
         </is>
@@ -5413,10 +4535,7 @@
       <c r="C274">
         <v>7.67</v>
       </c>
-      <c r="F274">
-        <v>7.67</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>snapshot</t>
         </is>
@@ -5431,10 +4550,7 @@
       <c r="C275">
         <v>7.67</v>
       </c>
-      <c r="F275">
-        <v>7.67</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>steak</t>
         </is>
@@ -5449,10 +4565,7 @@
       <c r="C276">
         <v>7.67</v>
       </c>
-      <c r="F276">
-        <v>7.67</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>disguise</t>
         </is>
@@ -5467,10 +4580,7 @@
       <c r="C277">
         <v>7.67</v>
       </c>
-      <c r="F277">
-        <v>7.67</v>
-      </c>
-      <c r="H277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
@@ -5485,10 +4595,7 @@
       <c r="C278">
         <v>7.67</v>
       </c>
-      <c r="F278">
-        <v>7.67</v>
-      </c>
-      <c r="H278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>be up to</t>
         </is>
@@ -5503,10 +4610,7 @@
       <c r="C279">
         <v>7.68</v>
       </c>
-      <c r="F279">
-        <v>7.68</v>
-      </c>
-      <c r="H279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>design</t>
         </is>
@@ -5518,19 +4622,13 @@
           <t>künstler</t>
         </is>
       </c>
-      <c r="B280">
-        <v>73.94</v>
-      </c>
       <c r="C280">
         <v>7.68</v>
       </c>
       <c r="D280">
-        <v>3.8</v>
-      </c>
-      <c r="F280">
-        <v>7.68</v>
-      </c>
-      <c r="H280" t="inlineStr">
+        <v>73.94</v>
+      </c>
+      <c r="G280" t="inlineStr">
         <is>
           <t>artist</t>
         </is>
@@ -5545,10 +4643,7 @@
       <c r="C281">
         <v>7.68</v>
       </c>
-      <c r="F281">
-        <v>7.68</v>
-      </c>
-      <c r="H281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>magic</t>
         </is>
@@ -5563,10 +4658,7 @@
       <c r="C282">
         <v>7.68</v>
       </c>
-      <c r="F282">
-        <v>7.68</v>
-      </c>
-      <c r="H282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>muzzle</t>
         </is>
@@ -5581,10 +4673,7 @@
       <c r="C283">
         <v>7.68</v>
       </c>
-      <c r="F283">
-        <v>7.68</v>
-      </c>
-      <c r="H283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>kidney</t>
         </is>
@@ -5599,10 +4688,7 @@
       <c r="C284">
         <v>7.68</v>
       </c>
-      <c r="F284">
-        <v>7.68</v>
-      </c>
-      <c r="H284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>represent</t>
         </is>
@@ -5617,10 +4703,7 @@
       <c r="C285">
         <v>7.69</v>
       </c>
-      <c r="F285">
-        <v>7.69</v>
-      </c>
-      <c r="H285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>highly</t>
         </is>
@@ -5635,10 +4718,7 @@
       <c r="C286">
         <v>7.7</v>
       </c>
-      <c r="F286">
-        <v>7.7</v>
-      </c>
-      <c r="H286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>detail</t>
         </is>
@@ -5653,10 +4733,7 @@
       <c r="C287">
         <v>7.7</v>
       </c>
-      <c r="F287">
-        <v>7.7</v>
-      </c>
-      <c r="H287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>experience</t>
         </is>
@@ -5671,10 +4748,7 @@
       <c r="C288">
         <v>7.7</v>
       </c>
-      <c r="F288">
-        <v>7.7</v>
-      </c>
-      <c r="H288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>determine</t>
         </is>
@@ -5689,10 +4763,7 @@
       <c r="C289">
         <v>7.7</v>
       </c>
-      <c r="F289">
-        <v>7.7</v>
-      </c>
-      <c r="H289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>justice</t>
         </is>
@@ -5707,10 +4778,7 @@
       <c r="C290">
         <v>7.7</v>
       </c>
-      <c r="F290">
-        <v>7.7</v>
-      </c>
-      <c r="H290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>majority</t>
         </is>
@@ -5725,10 +4793,7 @@
       <c r="C291">
         <v>7.7</v>
       </c>
-      <c r="F291">
-        <v>7.7</v>
-      </c>
-      <c r="H291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>risk</t>
         </is>
@@ -5743,10 +4808,7 @@
       <c r="C292">
         <v>7.7</v>
       </c>
-      <c r="F292">
-        <v>7.7</v>
-      </c>
-      <c r="H292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>approval</t>
         </is>
@@ -5761,10 +4823,7 @@
       <c r="C293">
         <v>7.71</v>
       </c>
-      <c r="F293">
-        <v>7.71</v>
-      </c>
-      <c r="H293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>dismantle</t>
         </is>
@@ -5779,10 +4838,7 @@
       <c r="C294">
         <v>7.71</v>
       </c>
-      <c r="F294">
-        <v>7.71</v>
-      </c>
-      <c r="H294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>active</t>
         </is>
@@ -5797,10 +4853,7 @@
       <c r="C295">
         <v>7.71</v>
       </c>
-      <c r="F295">
-        <v>7.71</v>
-      </c>
-      <c r="H295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>information</t>
         </is>
@@ -5815,10 +4868,7 @@
       <c r="C296">
         <v>7.71</v>
       </c>
-      <c r="F296">
-        <v>7.71</v>
-      </c>
-      <c r="H296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>be disorganised</t>
         </is>
@@ -5833,10 +4883,7 @@
       <c r="C297">
         <v>7.71</v>
       </c>
-      <c r="F297">
-        <v>7.71</v>
-      </c>
-      <c r="H297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>humanity</t>
         </is>
@@ -5851,10 +4898,7 @@
       <c r="C298">
         <v>7.71</v>
       </c>
-      <c r="F298">
-        <v>7.71</v>
-      </c>
-      <c r="H298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>rivet</t>
         </is>
@@ -5869,10 +4913,7 @@
       <c r="C299">
         <v>7.71</v>
       </c>
-      <c r="F299">
-        <v>7.71</v>
-      </c>
-      <c r="H299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>fine specimen</t>
         </is>
@@ -5887,10 +4928,7 @@
       <c r="C300">
         <v>7.71</v>
       </c>
-      <c r="F300">
-        <v>7.71</v>
-      </c>
-      <c r="H300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>southern</t>
         </is>
@@ -5905,10 +4943,7 @@
       <c r="C301">
         <v>7.71</v>
       </c>
-      <c r="F301">
-        <v>7.71</v>
-      </c>
-      <c r="H301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>unreasonableness</t>
         </is>
@@ -5923,10 +4958,7 @@
       <c r="C302">
         <v>7.72</v>
       </c>
-      <c r="F302">
-        <v>7.72</v>
-      </c>
-      <c r="H302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>prepare</t>
         </is>
@@ -5941,10 +4973,7 @@
       <c r="C303">
         <v>7.72</v>
       </c>
-      <c r="F303">
-        <v>7.72</v>
-      </c>
-      <c r="H303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>agree</t>
         </is>
@@ -5959,10 +4988,7 @@
       <c r="C304">
         <v>7.73</v>
       </c>
-      <c r="F304">
-        <v>7.73</v>
-      </c>
-      <c r="H304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>nuisance</t>
         </is>
@@ -5977,10 +5003,7 @@
       <c r="C305">
         <v>7.73</v>
       </c>
-      <c r="F305">
-        <v>7.73</v>
-      </c>
-      <c r="H305" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>private</t>
         </is>
@@ -5995,10 +5018,7 @@
       <c r="C306">
         <v>7.73</v>
       </c>
-      <c r="F306">
-        <v>7.73</v>
-      </c>
-      <c r="H306" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>futile</t>
         </is>
@@ -6013,10 +5033,7 @@
       <c r="C307">
         <v>7.74</v>
       </c>
-      <c r="F307">
-        <v>7.74</v>
-      </c>
-      <c r="H307" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>omelette</t>
         </is>
@@ -6031,10 +5048,7 @@
       <c r="C308">
         <v>7.74</v>
       </c>
-      <c r="F308">
-        <v>7.74</v>
-      </c>
-      <c r="H308" t="inlineStr">
+      <c r="G308" t="inlineStr">
         <is>
           <t>personally</t>
         </is>
@@ -6049,10 +5063,7 @@
       <c r="C309">
         <v>7.75</v>
       </c>
-      <c r="F309">
-        <v>7.75</v>
-      </c>
-      <c r="H309" t="inlineStr">
+      <c r="G309" t="inlineStr">
         <is>
           <t>conscience</t>
         </is>
@@ -6067,10 +5078,7 @@
       <c r="C310">
         <v>7.75</v>
       </c>
-      <c r="F310">
-        <v>7.75</v>
-      </c>
-      <c r="H310" t="inlineStr">
+      <c r="G310" t="inlineStr">
         <is>
           <t>feature</t>
         </is>
@@ -6085,10 +5093,7 @@
       <c r="C311">
         <v>7.75</v>
       </c>
-      <c r="F311">
-        <v>7.75</v>
-      </c>
-      <c r="H311" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>sensible</t>
         </is>
@@ -6103,10 +5108,7 @@
       <c r="C312">
         <v>7.75</v>
       </c>
-      <c r="F312">
-        <v>7.75</v>
-      </c>
-      <c r="H312" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>turban</t>
         </is>
@@ -6121,10 +5123,7 @@
       <c r="C313">
         <v>7.76</v>
       </c>
-      <c r="F313">
-        <v>7.76</v>
-      </c>
-      <c r="H313" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>horde</t>
         </is>
@@ -6139,10 +5138,7 @@
       <c r="C314">
         <v>7.76</v>
       </c>
-      <c r="F314">
-        <v>7.76</v>
-      </c>
-      <c r="H314" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>medicine man</t>
         </is>
@@ -6157,10 +5153,7 @@
       <c r="C315">
         <v>7.76</v>
       </c>
-      <c r="F315">
-        <v>7.76</v>
-      </c>
-      <c r="H315" t="inlineStr">
+      <c r="G315" t="inlineStr">
         <is>
           <t>reason</t>
         </is>
@@ -6175,10 +5168,7 @@
       <c r="C316">
         <v>7.77</v>
       </c>
-      <c r="F316">
-        <v>7.77</v>
-      </c>
-      <c r="H316" t="inlineStr">
+      <c r="G316" t="inlineStr">
         <is>
           <t>rent</t>
         </is>
@@ -6190,19 +5180,13 @@
           <t>akkordeon</t>
         </is>
       </c>
-      <c r="B317">
-        <v>0.64</v>
-      </c>
       <c r="C317">
         <v>7.78</v>
       </c>
       <c r="D317">
-        <v>3.55</v>
-      </c>
-      <c r="F317">
-        <v>7.78</v>
-      </c>
-      <c r="H317" t="inlineStr">
+        <v>0.64</v>
+      </c>
+      <c r="G317" t="inlineStr">
         <is>
           <t>accordion</t>
         </is>
@@ -6217,10 +5201,7 @@
       <c r="C318">
         <v>7.78</v>
       </c>
-      <c r="F318">
-        <v>7.78</v>
-      </c>
-      <c r="H318" t="inlineStr">
+      <c r="G318" t="inlineStr">
         <is>
           <t>panic</t>
         </is>
@@ -6235,10 +5216,7 @@
       <c r="C319">
         <v>7.78</v>
       </c>
-      <c r="F319">
-        <v>7.78</v>
-      </c>
-      <c r="H319" t="inlineStr">
+      <c r="G319" t="inlineStr">
         <is>
           <t>reprimand</t>
         </is>
@@ -6253,10 +5231,7 @@
       <c r="C320">
         <v>7.78</v>
       </c>
-      <c r="F320">
-        <v>7.78</v>
-      </c>
-      <c r="H320" t="inlineStr">
+      <c r="G320" t="inlineStr">
         <is>
           <t>useless</t>
         </is>
@@ -6271,10 +5246,7 @@
       <c r="C321">
         <v>7.79</v>
       </c>
-      <c r="F321">
-        <v>7.79</v>
-      </c>
-      <c r="H321" t="inlineStr">
+      <c r="G321" t="inlineStr">
         <is>
           <t>departure</t>
         </is>
@@ -6289,10 +5261,7 @@
       <c r="C322">
         <v>7.79</v>
       </c>
-      <c r="F322">
-        <v>7.79</v>
-      </c>
-      <c r="H322" t="inlineStr">
+      <c r="G322" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
@@ -6304,19 +5273,13 @@
           <t>echse</t>
         </is>
       </c>
-      <c r="B323">
-        <v>0.74</v>
-      </c>
       <c r="C323">
         <v>7.79</v>
       </c>
       <c r="D323">
-        <v>4.5</v>
-      </c>
-      <c r="F323">
-        <v>7.79</v>
-      </c>
-      <c r="H323" t="inlineStr">
+        <v>0.74</v>
+      </c>
+      <c r="G323" t="inlineStr">
         <is>
           <t>saurian</t>
         </is>
@@ -6331,10 +5294,7 @@
       <c r="C324">
         <v>7.79</v>
       </c>
-      <c r="F324">
-        <v>7.79</v>
-      </c>
-      <c r="H324" t="inlineStr">
+      <c r="G324" t="inlineStr">
         <is>
           <t>ability</t>
         </is>
@@ -6349,10 +5309,7 @@
       <c r="C325">
         <v>7.79</v>
       </c>
-      <c r="F325">
-        <v>7.79</v>
-      </c>
-      <c r="H325" t="inlineStr">
+      <c r="G325" t="inlineStr">
         <is>
           <t>classical music</t>
         </is>
@@ -6367,10 +5324,7 @@
       <c r="C326">
         <v>7.79</v>
       </c>
-      <c r="F326">
-        <v>7.79</v>
-      </c>
-      <c r="H326" t="inlineStr">
+      <c r="G326" t="inlineStr">
         <is>
           <t>ruse</t>
         </is>
@@ -6382,19 +5336,13 @@
           <t>moped</t>
         </is>
       </c>
-      <c r="B327">
-        <v>0.64</v>
-      </c>
       <c r="C327">
         <v>7.79</v>
       </c>
       <c r="D327">
-        <v>3.55</v>
-      </c>
-      <c r="F327">
-        <v>7.79</v>
-      </c>
-      <c r="H327" t="inlineStr">
+        <v>0.64</v>
+      </c>
+      <c r="G327" t="inlineStr">
         <is>
           <t>moped</t>
         </is>
@@ -6409,10 +5357,7 @@
       <c r="C328">
         <v>7.79</v>
       </c>
-      <c r="F328">
-        <v>7.79</v>
-      </c>
-      <c r="H328" t="inlineStr">
+      <c r="G328" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -6427,10 +5372,7 @@
       <c r="C329">
         <v>7.79</v>
       </c>
-      <c r="F329">
-        <v>7.79</v>
-      </c>
-      <c r="H329" t="inlineStr">
+      <c r="G329" t="inlineStr">
         <is>
           <t>point</t>
         </is>
@@ -6445,10 +5387,7 @@
       <c r="C330">
         <v>7.79</v>
       </c>
-      <c r="F330">
-        <v>7.79</v>
-      </c>
-      <c r="H330" t="inlineStr">
+      <c r="G330" t="inlineStr">
         <is>
           <t>shaft</t>
         </is>
@@ -6463,10 +5402,7 @@
       <c r="C331">
         <v>7.79</v>
       </c>
-      <c r="F331">
-        <v>7.79</v>
-      </c>
-      <c r="H331" t="inlineStr">
+      <c r="G331" t="inlineStr">
         <is>
           <t>stability</t>
         </is>
@@ -6481,10 +5417,7 @@
       <c r="C332">
         <v>7.8</v>
       </c>
-      <c r="F332">
-        <v>7.8</v>
-      </c>
-      <c r="H332" t="inlineStr">
+      <c r="G332" t="inlineStr">
         <is>
           <t>electronic</t>
         </is>
@@ -6499,10 +5432,7 @@
       <c r="C333">
         <v>7.8</v>
       </c>
-      <c r="F333">
-        <v>7.8</v>
-      </c>
-      <c r="H333" t="inlineStr">
+      <c r="G333" t="inlineStr">
         <is>
           <t>bother</t>
         </is>
@@ -6517,10 +5447,7 @@
       <c r="C334">
         <v>7.8</v>
       </c>
-      <c r="F334">
-        <v>7.8</v>
-      </c>
-      <c r="H334" t="inlineStr">
+      <c r="G334" t="inlineStr">
         <is>
           <t>forgive</t>
         </is>
@@ -6535,10 +5462,7 @@
       <c r="C335">
         <v>7.8</v>
       </c>
-      <c r="F335">
-        <v>7.8</v>
-      </c>
-      <c r="H335" t="inlineStr">
+      <c r="G335" t="inlineStr">
         <is>
           <t>be unsuccessful</t>
         </is>
@@ -6553,10 +5477,7 @@
       <c r="C336">
         <v>7.81</v>
       </c>
-      <c r="F336">
-        <v>7.81</v>
-      </c>
-      <c r="H336" t="inlineStr">
+      <c r="G336" t="inlineStr">
         <is>
           <t>cotton</t>
         </is>
@@ -6571,10 +5492,7 @@
       <c r="C337">
         <v>7.81</v>
       </c>
-      <c r="F337">
-        <v>7.81</v>
-      </c>
-      <c r="H337" t="inlineStr">
+      <c r="G337" t="inlineStr">
         <is>
           <t>leadership</t>
         </is>
@@ -6589,10 +5507,7 @@
       <c r="C338">
         <v>7.81</v>
       </c>
-      <c r="F338">
-        <v>7.81</v>
-      </c>
-      <c r="H338" t="inlineStr">
+      <c r="G338" t="inlineStr">
         <is>
           <t>maid</t>
         </is>
@@ -6607,10 +5522,7 @@
       <c r="C339">
         <v>7.82</v>
       </c>
-      <c r="F339">
-        <v>7.82</v>
-      </c>
-      <c r="H339" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>filter</t>
         </is>
@@ -6625,10 +5537,7 @@
       <c r="C340">
         <v>7.82</v>
       </c>
-      <c r="F340">
-        <v>7.82</v>
-      </c>
-      <c r="H340" t="inlineStr">
+      <c r="G340" t="inlineStr">
         <is>
           <t>carnation</t>
         </is>
@@ -6643,10 +5552,7 @@
       <c r="C341">
         <v>7.82</v>
       </c>
-      <c r="F341">
-        <v>7.82</v>
-      </c>
-      <c r="H341" t="inlineStr">
+      <c r="G341" t="inlineStr">
         <is>
           <t>hesitant</t>
         </is>
@@ -6661,10 +5567,7 @@
       <c r="C342">
         <v>7.83</v>
       </c>
-      <c r="F342">
-        <v>7.83</v>
-      </c>
-      <c r="H342" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>embassy</t>
         </is>
@@ -6679,10 +5582,7 @@
       <c r="C343">
         <v>7.83</v>
       </c>
-      <c r="F343">
-        <v>7.83</v>
-      </c>
-      <c r="H343" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>once upon a time</t>
         </is>
@@ -6697,10 +5597,7 @@
       <c r="C344">
         <v>7.83</v>
       </c>
-      <c r="F344">
-        <v>7.83</v>
-      </c>
-      <c r="H344" t="inlineStr">
+      <c r="G344" t="inlineStr">
         <is>
           <t>obtain</t>
         </is>
@@ -6715,10 +5612,7 @@
       <c r="C345">
         <v>7.83</v>
       </c>
-      <c r="F345">
-        <v>7.83</v>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G345" t="inlineStr">
         <is>
           <t>passenger</t>
         </is>
